--- a/else/Test/input/test/test.xlsx
+++ b/else/Test/input/test/test.xlsx
@@ -101,7 +101,89 @@
     <t>测试id1</t>
   </si>
   <si>
-    <t>"字符串测试1"</t>
+    <r>
+      <t>"字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>试1a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aaa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bbbb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ccd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ddd"</t>
+    </r>
   </si>
   <si>
     <t>a\c\\b\\\\\s.blp</t>
@@ -240,7 +322,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -411,6 +493,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1293,7 +1403,7 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/else/Test/input/test/test.xlsx
+++ b/else/Test/input/test/test.xlsx
@@ -28,12 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>自定义id</t>
   </si>
   <si>
-    <t>字符串</t>
+    <t>字符串#color</t>
   </si>
   <si>
     <t>路径
@@ -102,6 +102,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>"字</t>
     </r>
     <r>
@@ -304,6 +311,9 @@
   </si>
   <si>
     <t>[1,2,6]</t>
+  </si>
+  <si>
+    <t>字符串</t>
   </si>
   <si>
     <t>字符串测试1</t>
@@ -1403,7 +1413,7 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2411,7 +2421,7 @@
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
@@ -2493,7 +2503,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
@@ -2538,7 +2548,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>

--- a/else/Test/input/test/test.xlsx
+++ b/else/Test/input/test/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>自定义id</t>
   </si>
@@ -37,10 +37,13 @@
   </si>
   <si>
     <t>路径
-#path
 #default 40</t>
   </si>
   <si>
+    <t>#default {防御:2785,
+法抗:58117}</t>
+  </si>
+  <si>
     <t>数字1</t>
   </si>
   <si>
@@ -59,9 +62,6 @@
     <t>数组</t>
   </si>
   <si>
-    <t>空白</t>
-  </si>
-  <si>
     <t>代码</t>
   </si>
   <si>
@@ -74,6 +74,9 @@
     <t>icon</t>
   </si>
   <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>num</t>
   </si>
   <si>
@@ -90,9 +93,6 @@
   </si>
   <si>
     <t>array</t>
-  </si>
-  <si>
-    <t>empty</t>
   </si>
   <si>
     <t>code</t>
@@ -109,7 +109,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"字</t>
+      <t>字</t>
     </r>
     <r>
       <rPr>
@@ -189,11 +189,14 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ddd"</t>
+      <t>ddd</t>
     </r>
   </si>
   <si>
     <t>a\c\\b\\\\\s.blp</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
   <si>
     <t>1e5</t>
@@ -217,7 +220,7 @@
     <t>测试id2</t>
   </si>
   <si>
-    <t>"字符串测试2"</t>
+    <t>字符串测试2</t>
   </si>
   <si>
     <t>1,234e3</t>
@@ -249,9 +252,6 @@
     <t>测试id4</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
     <t>1,234,567.89e+6</t>
   </si>
   <si>
@@ -316,10 +316,18 @@
     <t>字符串</t>
   </si>
   <si>
+    <t>路径
+#path
+#default 40</t>
+  </si>
+  <si>
+    <t>空白</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>字符串测试1</t>
-  </si>
-  <si>
-    <t>字符串测试2</t>
   </si>
 </sst>
 </file>
@@ -740,7 +748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -755,19 +763,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -900,7 +895,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -912,34 +907,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1079,11 +1074,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1410,42 +1402,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="12.2222222222222" style="16" customWidth="1"/>
-    <col min="3" max="4" width="18" style="16" customWidth="1"/>
-    <col min="5" max="5" width="24.6666666666667" style="16" customWidth="1"/>
+    <col min="1" max="1" width="12.2222222222222" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9.11111111111111" style="16" customWidth="1"/>
+    <col min="3" max="3" width="18" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.6666666666667" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.5555555555556" style="16" customWidth="1"/>
     <col min="6" max="6" width="15.5555555555556" style="16" customWidth="1"/>
-    <col min="7" max="7" width="16" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.5555555555556" style="16" customWidth="1"/>
     <col min="8" max="8" width="23.1111111111111" style="16" customWidth="1"/>
     <col min="9" max="9" width="9.33333333333333" style="16" customWidth="1"/>
     <col min="10" max="10" width="19" style="16" customWidth="1"/>
     <col min="11" max="11" width="17.1111111111111" style="16" customWidth="1"/>
-    <col min="12" max="12" width="18.6666666666667" style="16" customWidth="1"/>
-    <col min="13" max="13" width="19.7777777777778" style="17" customWidth="1"/>
-    <col min="14" max="14" width="40.8333333333333" style="16" customWidth="1"/>
-    <col min="15" max="15" width="9" style="16"/>
-    <col min="16" max="16" width="17.1111111111111" style="16" customWidth="1"/>
-    <col min="17" max="17" width="11.1111111111111" style="16" customWidth="1"/>
-    <col min="18" max="18" width="15" style="16" customWidth="1"/>
-    <col min="19" max="19" width="6.77777777777778" style="16" customWidth="1"/>
-    <col min="20" max="20" width="9.66666666666667" style="16" customWidth="1"/>
-    <col min="21" max="21" width="12.6666666666667" style="16" customWidth="1"/>
-    <col min="22" max="22" width="12.1111111111111" style="16" customWidth="1"/>
-    <col min="23" max="23" width="18.6666666666667" style="16" customWidth="1"/>
-    <col min="24" max="24" width="12.6666666666667" style="16" customWidth="1"/>
-    <col min="25" max="25" width="14.1111111111111" style="16" customWidth="1"/>
-    <col min="26" max="26" width="12.6666666666667" style="16" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="16"/>
+    <col min="12" max="12" width="12.7777777777778" style="17" customWidth="1"/>
+    <col min="13" max="13" width="40.8333333333333" style="16" customWidth="1"/>
+    <col min="14" max="14" width="9" style="16"/>
+    <col min="15" max="15" width="17.1111111111111" style="16" customWidth="1"/>
+    <col min="16" max="16" width="11.1111111111111" style="16" customWidth="1"/>
+    <col min="17" max="17" width="15" style="16" customWidth="1"/>
+    <col min="18" max="18" width="6.77777777777778" style="16" customWidth="1"/>
+    <col min="19" max="19" width="9.66666666666667" style="16" customWidth="1"/>
+    <col min="20" max="20" width="12.6666666666667" style="16" customWidth="1"/>
+    <col min="21" max="21" width="12.1111111111111" style="16" customWidth="1"/>
+    <col min="22" max="22" width="18.6666666666667" style="16" customWidth="1"/>
+    <col min="23" max="23" width="12.6666666666667" style="16" customWidth="1"/>
+    <col min="24" max="24" width="14.1111111111111" style="16" customWidth="1"/>
+    <col min="25" max="25" width="12.6666666666667" style="16" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:28">
+    <row r="1" s="1" customFormat="1" ht="43" customHeight="1" spans="1:27">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1453,51 +1446,50 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="O1" s="11"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="11"/>
       <c r="X1" s="11"/>
       <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="11"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="17.4" spans="1:28">
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="11"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="17.4" spans="1:27">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1505,34 +1497,34 @@
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="20" t="s">
         <v>21</v>
       </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1546,10 +1538,9 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="11"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="17" customHeight="1" spans="1:28">
+      <c r="AA2" s="11"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="17" customHeight="1" spans="1:27">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -1557,9 +1548,11 @@
       <c r="C3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="7">
         <v>1234567.89</v>
@@ -1567,136 +1560,131 @@
       <c r="G3" s="7">
         <v>52.87</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>25</v>
+      <c r="H3" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="I3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="3"/>
+      <c r="L3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="2"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="17" customHeight="1" spans="1:25">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7">
         <v>15.897</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>31</v>
+      <c r="H4" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="I4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+    </row>
+    <row r="5" s="3" customFormat="1" ht="17" customHeight="1" spans="1:25">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7">
         <v>-21.076</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+    </row>
+    <row r="6" s="3" customFormat="1" ht="17" customHeight="1" spans="1:25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="7">
         <v>138</v>
       </c>
@@ -1715,36 +1703,31 @@
       <c r="K6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="3"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+    </row>
+    <row r="7" s="3" customFormat="1" ht="17" customHeight="1" spans="1:25">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="7">
         <v>139</v>
       </c>
@@ -1763,69 +1746,61 @@
       <c r="K7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="3"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+    </row>
+    <row r="8" s="3" customFormat="1" ht="17" customHeight="1" spans="1:25">
       <c r="A8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="7">
-        <v>-95.022</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7">
         <v>136</v>
       </c>
       <c r="G8" s="7">
         <v>15.897</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="19">
-        <v>123</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="3"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+    </row>
+    <row r="9" s="3" customFormat="1" ht="17" customHeight="1" spans="1:25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="7">
-        <v>-95.022</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1834,30 +1809,27 @@
         <v>0</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+    </row>
+    <row r="10" s="3" customFormat="1" ht="17" customHeight="1" spans="1:25">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -1865,17 +1837,17 @@
       <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="7">
         <v>140</v>
       </c>
       <c r="G10" s="7">
         <v>-131.995</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="20" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="7" t="b">
@@ -1887,25 +1859,22 @@
       <c r="K10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="3"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+    </row>
+    <row r="11" s="3" customFormat="1" ht="17" customHeight="1" spans="1:25">
       <c r="A11" s="7" t="s">
         <v>55</v>
       </c>
@@ -1913,17 +1882,17 @@
       <c r="C11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="7">
         <v>141</v>
       </c>
       <c r="G11" s="7">
         <v>-168.968</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>57</v>
       </c>
       <c r="I11" s="7" t="b">
@@ -1935,303 +1904,292 @@
       <c r="K11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="3"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="12" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="I12" s="7"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="13" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="14" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="I14" s="7"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="15" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="7"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="16" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
       <c r="I16" s="7"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="17" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
       <c r="I17" s="7"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="18" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="19" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="7"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="20" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
       <c r="I20" s="7"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="21" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
       <c r="I21" s="7"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="22" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2243,23 +2201,22 @@
       <c r="I22" s="7"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="23" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2271,23 +2228,22 @@
       <c r="I23" s="7"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="24" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2299,23 +2255,22 @@
       <c r="I24" s="7"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="17.4" spans="1:26">
+    </row>
+    <row r="25" s="3" customFormat="1" ht="17.4" spans="1:25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2327,20 +2282,19 @@
       <c r="I25" s="7"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" s="16" customFormat="1" ht="17.4" spans="1:30">
+    </row>
+    <row r="26" s="16" customFormat="1" ht="17.4" spans="1:29">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2350,26 +2304,26 @@
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
       <c r="I26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
+      <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-    </row>
-    <row r="27" s="16" customFormat="1" ht="17.4" spans="1:30">
+    </row>
+    <row r="27" s="16" customFormat="1" ht="17.4" spans="1:29">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2379,24 +2333,24 @@
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
       <c r="I27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+      <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2425,28 +2379,28 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="M1" s="10"/>
       <c r="P1" s="11"/>
@@ -2474,25 +2428,25 @@
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="M2" s="13"/>
       <c r="AB2" s="11"/>
@@ -2503,7 +2457,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
@@ -2515,17 +2469,17 @@
       <c r="G3" s="7">
         <v>52.87</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>25</v>
+      <c r="H3" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="I3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="15"/>
@@ -2544,11 +2498,11 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="9" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>
@@ -2556,17 +2510,17 @@
       <c r="G4" s="7">
         <v>15.897</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>31</v>
+      <c r="H4" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="I4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="7" t="b">
         <v>0</v>

--- a/else/Test/input/test/test.xlsx
+++ b/else/Test/input/test/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,7 @@
 #default 40</t>
   </si>
   <si>
-    <t>#default {防御:2785,
-法抗:58117}</t>
+    <t>#default {防御:2785,法抗:58117}</t>
   </si>
   <si>
     <t>数字1</t>
@@ -1405,35 +1404,35 @@
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.2222222222222" style="16" customWidth="1"/>
-    <col min="2" max="2" width="9.11111111111111" style="16" customWidth="1"/>
+    <col min="1" max="1" width="12.225" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9.10833333333333" style="16" customWidth="1"/>
     <col min="3" max="3" width="18" style="16" customWidth="1"/>
     <col min="4" max="4" width="24.6666666666667" style="16" customWidth="1"/>
-    <col min="5" max="5" width="14.5555555555556" style="16" customWidth="1"/>
-    <col min="6" max="6" width="15.5555555555556" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.5555555555556" style="16" customWidth="1"/>
-    <col min="8" max="8" width="23.1111111111111" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.5583333333333" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.5583333333333" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.5583333333333" style="16" customWidth="1"/>
+    <col min="8" max="8" width="23.1083333333333" style="16" customWidth="1"/>
     <col min="9" max="9" width="9.33333333333333" style="16" customWidth="1"/>
     <col min="10" max="10" width="19" style="16" customWidth="1"/>
-    <col min="11" max="11" width="17.1111111111111" style="16" customWidth="1"/>
-    <col min="12" max="12" width="12.7777777777778" style="17" customWidth="1"/>
+    <col min="11" max="11" width="17.1083333333333" style="16" customWidth="1"/>
+    <col min="12" max="12" width="12.775" style="17" customWidth="1"/>
     <col min="13" max="13" width="40.8333333333333" style="16" customWidth="1"/>
     <col min="14" max="14" width="9" style="16"/>
-    <col min="15" max="15" width="17.1111111111111" style="16" customWidth="1"/>
-    <col min="16" max="16" width="11.1111111111111" style="16" customWidth="1"/>
+    <col min="15" max="15" width="17.1083333333333" style="16" customWidth="1"/>
+    <col min="16" max="16" width="11.1083333333333" style="16" customWidth="1"/>
     <col min="17" max="17" width="15" style="16" customWidth="1"/>
-    <col min="18" max="18" width="6.77777777777778" style="16" customWidth="1"/>
+    <col min="18" max="18" width="6.775" style="16" customWidth="1"/>
     <col min="19" max="19" width="9.66666666666667" style="16" customWidth="1"/>
     <col min="20" max="20" width="12.6666666666667" style="16" customWidth="1"/>
-    <col min="21" max="21" width="12.1111111111111" style="16" customWidth="1"/>
+    <col min="21" max="21" width="12.1083333333333" style="16" customWidth="1"/>
     <col min="22" max="22" width="18.6666666666667" style="16" customWidth="1"/>
     <col min="23" max="23" width="12.6666666666667" style="16" customWidth="1"/>
-    <col min="24" max="24" width="14.1111111111111" style="16" customWidth="1"/>
+    <col min="24" max="24" width="14.1083333333333" style="16" customWidth="1"/>
     <col min="25" max="25" width="12.6666666666667" style="16" customWidth="1"/>
     <col min="26" max="16384" width="9" style="16"/>
   </cols>
@@ -1489,7 +1488,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="11"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="17.4" spans="1:27">
+    <row r="2" s="2" customFormat="1" ht="18.75" spans="1:27">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1919,7 +1918,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="12" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="9"/>
@@ -1946,7 +1945,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="13" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="9"/>
@@ -1973,7 +1972,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="14" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
@@ -2000,7 +1999,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="15" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="9"/>
@@ -2027,7 +2026,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="16" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
@@ -2054,7 +2053,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="17" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -2081,7 +2080,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="18" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -2108,7 +2107,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="19" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -2135,7 +2134,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="20" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -2162,7 +2161,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="21" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
@@ -2189,7 +2188,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="22" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2216,7 +2215,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="23" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2243,7 +2242,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="24" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2270,7 +2269,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="17.4" spans="1:25">
+    <row r="25" s="3" customFormat="1" ht="18.75" spans="1:25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2294,7 +2293,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" s="16" customFormat="1" ht="17.4" spans="1:29">
+    <row r="26" s="16" customFormat="1" ht="18.75" spans="1:29">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2323,7 +2322,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" s="16" customFormat="1" ht="17.4" spans="1:29">
+    <row r="27" s="16" customFormat="1" ht="18.75" spans="1:29">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2367,7 +2366,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:28">
       <c r="A1" s="4" t="s">
@@ -2415,7 +2414,7 @@
       <c r="Z1" s="11"/>
       <c r="AB1" s="11"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="17.4" spans="1:28">
+    <row r="2" s="2" customFormat="1" ht="18.75" spans="1:28">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
